--- a/Patterns.xlsx
+++ b/Patterns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="28320" windowHeight="13305"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="28320" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t xml:space="preserve">LED </t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Chase Clockwise</t>
+  </si>
+  <si>
+    <t>Throb</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4225,8 +4228,1554 @@
         <v>120</v>
       </c>
     </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1">
+        <v>30</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45</v>
+      </c>
+      <c r="G47" s="1">
+        <v>60</v>
+      </c>
+      <c r="H47" s="1">
+        <v>75</v>
+      </c>
+      <c r="I47" s="1">
+        <v>90</v>
+      </c>
+      <c r="J47" s="1">
+        <v>105</v>
+      </c>
+      <c r="K47" s="1">
+        <v>120</v>
+      </c>
+      <c r="L47" s="1">
+        <v>135</v>
+      </c>
+      <c r="M47" s="1">
+        <v>150</v>
+      </c>
+      <c r="N47" s="1">
+        <v>165</v>
+      </c>
+      <c r="O47" s="1">
+        <v>180</v>
+      </c>
+      <c r="P47" s="1">
+        <v>195</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>210</v>
+      </c>
+      <c r="R47" s="1">
+        <v>225</v>
+      </c>
+      <c r="S47" s="1">
+        <v>240</v>
+      </c>
+      <c r="T47" s="1">
+        <v>255</v>
+      </c>
+      <c r="U47" s="1">
+        <v>270</v>
+      </c>
+      <c r="V47" s="1">
+        <v>285</v>
+      </c>
+      <c r="W47" s="1">
+        <v>300</v>
+      </c>
+      <c r="X47" s="1">
+        <v>315</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>330</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>345</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>ROUND(ABS(180 - C$47), 0)</f>
+        <v>180</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:AA53" si="14">ROUND(ABS(180 - D$47), 0)</f>
+        <v>165</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <f>B48+60</f>
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:C53" si="15">ROUND(ABS(180 - C$47), 0)</f>
+        <v>180</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <f>B49+60</f>
+        <v>120</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="15"/>
+        <v>180</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <f>B50+60</f>
+        <v>180</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="15"/>
+        <v>180</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <f>B51+60</f>
+        <v>240</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="15"/>
+        <v>180</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <f>B52+60</f>
+        <v>300</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="15"/>
+        <v>180</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1">
+        <v>45</v>
+      </c>
+      <c r="G56" s="1">
+        <v>60</v>
+      </c>
+      <c r="H56" s="1">
+        <v>75</v>
+      </c>
+      <c r="I56" s="1">
+        <v>90</v>
+      </c>
+      <c r="J56" s="1">
+        <v>105</v>
+      </c>
+      <c r="K56" s="1">
+        <v>120</v>
+      </c>
+      <c r="L56" s="1">
+        <v>135</v>
+      </c>
+      <c r="M56" s="1">
+        <v>150</v>
+      </c>
+      <c r="N56" s="1">
+        <v>165</v>
+      </c>
+      <c r="O56" s="1">
+        <v>180</v>
+      </c>
+      <c r="P56" s="1">
+        <v>195</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>210</v>
+      </c>
+      <c r="R56" s="1">
+        <v>225</v>
+      </c>
+      <c r="S56" s="1">
+        <v>240</v>
+      </c>
+      <c r="T56" s="1">
+        <v>255</v>
+      </c>
+      <c r="U56" s="1">
+        <v>270</v>
+      </c>
+      <c r="V56" s="1">
+        <v>285</v>
+      </c>
+      <c r="W56" s="1">
+        <v>300</v>
+      </c>
+      <c r="X56" s="1">
+        <v>315</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>330</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>345</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>(1 + COS(RADIANS(C$56)))* 50</f>
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:AA62" si="16">(1 + COS(RADIANS(D$56)))* 50</f>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="16"/>
+        <v>62.940952255126035</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="16"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="16"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="16"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="16"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="16"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="16"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="16"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="16"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="16"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="16"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <f>B57+60</f>
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:R62" si="17">(1 + COS(RADIANS(C$56)))* 50</f>
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="17"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="17"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="17"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="17"/>
+        <v>62.940952255126035</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="17"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="17"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="17"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="17"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="17"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="17"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="17"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="17"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="16"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="16"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="16"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="16"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <f>B58+60</f>
+        <v>120</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="16"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="16"/>
+        <v>62.940952255126035</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="16"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="16"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="16"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="16"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="16"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="16"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="16"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="16"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="16"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="16"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <f>B59+60</f>
+        <v>180</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="16"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="16"/>
+        <v>62.940952255126035</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="16"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="16"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="16"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="16"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="16"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="16"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="16"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="16"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="16"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="16"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <f>B60+60</f>
+        <v>240</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="16"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="16"/>
+        <v>62.940952255126035</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="16"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="16"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="16"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="16"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="16"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="16"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="16"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="16"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="16"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="16"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <f>B61+60</f>
+        <v>300</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="16"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="16"/>
+        <v>62.940952255126035</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="16"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="16"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="16"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="16"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="16"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="16"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="16"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="16"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="16"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="16"/>
+        <v>85.355339059327378</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="16"/>
+        <v>98.296291314453413</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:AA46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:AA55"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:AA1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:AA10"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:AA37"/>
@@ -4236,15 +5785,9 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:AA28"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:AA1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:AA10"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AA8">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4254,6 +5797,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AA17">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:AA35">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4263,7 +5816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:AA35">
+  <conditionalFormatting sqref="C21:AA26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4273,7 +5826,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:AA26">
+  <conditionalFormatting sqref="C39:AA44">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:AA53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4283,7 +5846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:AA44">
+  <conditionalFormatting sqref="C57:AA62">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Patterns.xlsx
+++ b/Patterns.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Throb 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t xml:space="preserve">LED </t>
   </si>
   <si>
     <t>Angle</t>
-  </si>
-  <si>
-    <t>Mexican wave</t>
   </si>
   <si>
     <t>Chase Both</t>
@@ -37,6 +34,15 @@
   </si>
   <si>
     <t>Throb</t>
+  </si>
+  <si>
+    <t>Throb Two</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Wave ACW</t>
   </si>
 </sst>
 </file>
@@ -96,6 +102,1222 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Throb 2'!$B$2:$B$361</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>49.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.255025164874958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.51217631279372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.77357683661733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.041344951996706</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.317591116653482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.604415459112005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.903905220016611</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.218132209150056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.549150281252615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.898992833716569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.269670329204381</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.663167846209994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.081442660546109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.526421860705462</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.50403678833975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.040354826462671</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.610737385376332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.216926233717089</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.860619515673022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.543469682057093</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.267081477050121</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.033009983067441</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.84275872613027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.697777844051094</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.59946231966391</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5491502812526221</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.5481213722479197</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5975951921786908</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6987298107780706</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8526203570536453</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0602976850416486</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3227271178699453</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6408072716606288</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0153689607045839</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4471741852423179</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9369152030840608</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4852136862001708</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0926199633097211</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.75961234938959343</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4865965629214819</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27390523158632996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.12179748700878457</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0458649045211894E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0458649045211894E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.12179748700879012</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.27390523158632996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48659656292148745</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.75961234938959898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0926199633097211</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4852136862001764</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9369152030840497</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4471741852423232</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0153689607045786</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.6408072716606341</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.3227271178699507</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0602976850416592</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.8526203570536506</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.6987298107780813</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.5975951921787024</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.5481213722479072</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.5491502812526328</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.599462319663894</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.697777844051105</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.842758726130283</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.033009983067441</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.267081477050132</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.543469682057086</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.860619515673037</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.216926233717089</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20.61073738537635</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22.040354826462664</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>23.504036788339761</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.526421860705458</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.081442660546131</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29.663167846209994</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>31.269670329204402</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32.898992833716569</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>34.549150281252636</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>36.218132209150049</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>37.903905220016625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39.604415459112026</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41.317591116653475</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43.041344951996727</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44.773576836617323</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>46.512176312793734</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>48.255025164874951</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>50.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>51.744974835125056</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53.48782368720628</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>55.226423163382691</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>56.958655048003273</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58.682408883346518</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>60.395584540887967</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>62.096094779983389</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>63.781867790849958</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>65.450849718747378</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>67.101007166283438</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>68.730329670795612</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>70.336832153790013</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>71.918557339453869</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>73.473578139294531</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>76.495963211660239</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>77.959645173537353</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>79.389262614623675</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>80.783073766282925</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>82.139380484326978</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>83.456530317942907</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>84.732918522949859</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>85.966990016932556</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>87.157241273869715</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>88.302222155948897</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>89.4005376803361</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>90.450849718747378</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>91.45187862775208</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>92.402404807821299</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>93.301270189221938</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>94.147379642946348</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>94.939702314958339</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>95.67727288213004</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>96.359192728339366</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>96.984631039295422</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>97.552825814757682</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>98.063084796915945</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>98.514786313799817</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>98.907380036690284</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>99.240387650610401</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>99.513403437078523</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>99.72609476841366</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>99.878202512991209</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>99.969541350954799</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>99.969541350954799</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>99.878202512991209</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>99.72609476841366</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>99.513403437078523</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>99.240387650610401</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>98.907380036690284</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>98.514786313799817</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>98.063084796915945</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>97.552825814757682</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>96.984631039295422</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>96.359192728339366</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>95.67727288213004</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>94.939702314958353</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>94.147379642946348</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>93.301270189221924</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>92.402404807821299</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>91.45187862775208</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>90.450849718747378</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>89.4005376803361</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>88.302222155948897</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>87.157241273869715</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>85.966990016932556</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>84.732918522949859</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>83.456530317942907</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>82.139380484326963</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>80.783073766282911</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>79.389262614623661</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>77.959645173537353</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>76.495963211660239</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>73.473578139294531</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>71.918557339453869</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>70.336832153790013</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>68.730329670795598</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>67.101007166283438</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>65.450849718747378</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>63.781867790849958</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>62.096094779983389</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>60.395584540887967</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>58.682408883346518</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>56.958655048003273</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>55.226423163382677</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>53.487823687206259</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>51.744974835125049</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>51.744974835125049</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>53.487823687206259</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>55.226423163382677</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>56.958655048003273</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>58.682408883346518</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>60.395584540887967</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>62.096094779983389</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>63.781867790849958</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>65.450849718747378</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>67.101007166283438</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>68.730329670795598</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>70.336832153790013</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>71.918557339453869</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>73.473578139294531</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>76.495963211660239</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>77.959645173537353</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>79.389262614623661</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>80.783073766282911</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>82.139380484326963</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>83.456530317942907</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>84.732918522949859</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>85.966990016932556</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>87.157241273869715</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>88.302222155948897</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>89.4005376803361</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>90.450849718747378</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>91.45187862775208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>92.402404807821299</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>93.301270189221924</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>94.147379642946348</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>94.939702314958353</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>95.67727288213004</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>96.359192728339366</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>96.984631039295422</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>97.552825814757682</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>98.063084796915945</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>98.514786313799817</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>98.907380036690284</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>99.240387650610401</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>99.513403437078523</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>99.72609476841366</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>99.878202512991209</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>99.969541350954799</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>99.969541350954799</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>99.878202512991209</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>99.72609476841366</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>99.513403437078523</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>99.240387650610401</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>98.907380036690284</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>98.514786313799817</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>98.063084796915945</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>97.552825814757682</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>96.984631039295422</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>96.359192728339366</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>95.67727288213004</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>94.939702314958339</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>94.147379642946348</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>93.301270189221938</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>92.402404807821299</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>91.45187862775208</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>90.450849718747378</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>89.4005376803361</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>88.302222155948897</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>87.157241273869715</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>85.966990016932556</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>84.732918522949859</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>83.456530317942907</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>82.139380484326978</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>80.783073766282925</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>79.389262614623675</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>77.959645173537353</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>76.495963211660239</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>73.473578139294531</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>71.918557339453869</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>70.336832153790013</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>68.730329670795612</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>67.101007166283438</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>65.450849718747378</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>63.781867790849958</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>62.096094779983389</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>60.395584540887967</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>58.682408883346518</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>56.958655048003273</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>55.226423163382691</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>53.48782368720628</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>51.744974835125056</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>50.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>48.255025164874951</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>46.512176312793734</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>44.773576836617323</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>43.041344951996727</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>41.317591116653475</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>39.604415459112026</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>37.903905220016625</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>36.218132209150049</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>34.549150281252636</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>32.898992833716569</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>31.269670329204402</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>29.663167846209994</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>28.081442660546131</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>26.526421860705458</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>24.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>23.504036788339761</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>22.040354826462664</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>20.61073738537635</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>19.216926233717089</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>17.860619515673037</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>16.543469682057086</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>15.267081477050132</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>14.033009983067441</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>12.842758726130283</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>11.697777844051105</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>10.599462319663894</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9.5491502812526328</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>8.5481213722479072</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>7.5975951921787024</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6.6987298107780813</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>5.8526203570536506</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>5.0602976850416592</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>4.3227271178699507</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3.6408072716606341</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.0153689607045786</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2.4471741852423232</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.9369152030840497</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.4852136862001764</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.0926199633097211</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.75961234938959898</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.48659656292148745</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.27390523158632996</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.12179748700879012</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3.0458649045211894E-2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3.0458649045211894E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.12179748700878457</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.27390523158632996</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.4865965629214819</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.75961234938959343</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.0926199633097211</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.4852136862001708</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.9369152030840608</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2.4471741852423179</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3.0153689607045839</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3.6408072716606288</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>4.3227271178699453</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>5.0602976850416486</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>5.8526203570536453</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6.6987298107780706</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>7.5975951921786908</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>8.5481213722479197</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>9.5491502812526221</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>10.59946231966391</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>11.697777844051094</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>12.84275872613027</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>14.033009983067441</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>15.267081477050121</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>16.543469682057093</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>17.860619515673022</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>19.216926233717089</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>20.610737385376332</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>22.040354826462671</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>23.50403678833975</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>24.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>26.526421860705462</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>28.081442660546109</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>29.663167846209994</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>31.269670329204381</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>32.898992833716569</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>34.549150281252615</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>36.218132209150056</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>37.903905220016611</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>39.604415459112005</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>41.317591116653482</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>43.041344951996706</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44.77357683661733</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>46.51217631279372</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>48.255025164874958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="184786944"/>
+        <c:axId val="215784768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="184786944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="215784768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="215784768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184786944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1168,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1935,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2702,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3469,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4236,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4350,104 +5572,104 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <f>ROUND(ABS(180 - C$47), 0)</f>
-        <v>180</v>
+        <f>(1 + COS(RADIANS(C$56)))* 50</f>
+        <v>100</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:AA53" si="14">ROUND(ABS(180 - D$47), 0)</f>
-        <v>165</v>
+        <f t="shared" ref="D48:AA53" si="14">(1 + COS(RADIANS(D$56)))* 50</f>
+        <v>98.296291314453413</v>
       </c>
       <c r="E48">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221938</v>
       </c>
       <c r="F48">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="G48">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="H48">
         <f t="shared" si="14"/>
-        <v>105</v>
+        <v>62.940952255126035</v>
       </c>
       <c r="I48">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <f t="shared" si="14"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="14"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="14"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="14"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="14"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="14"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="14"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="14"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="14"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="14"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="14"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="14"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="14"/>
-        <v>75</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="14"/>
-        <v>90</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="14"/>
-        <v>105</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="14"/>
-        <v>120</v>
-      </c>
       <c r="X48">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="Y48">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221924</v>
       </c>
       <c r="Z48">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>98.296291314453413</v>
       </c>
       <c r="AA48">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
@@ -4459,104 +5681,104 @@
         <v>60</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C53" si="15">ROUND(ABS(180 - C$47), 0)</f>
-        <v>180</v>
+        <f t="shared" ref="C49:R53" si="15">(1 + COS(RADIANS(C$56)))* 50</f>
+        <v>100</v>
       </c>
       <c r="D49">
-        <f t="shared" si="14"/>
-        <v>165</v>
+        <f t="shared" si="15"/>
+        <v>98.296291314453413</v>
       </c>
       <c r="E49">
-        <f t="shared" si="14"/>
-        <v>150</v>
+        <f t="shared" si="15"/>
+        <v>93.301270189221938</v>
       </c>
       <c r="F49">
-        <f t="shared" si="14"/>
-        <v>135</v>
+        <f t="shared" si="15"/>
+        <v>85.355339059327378</v>
       </c>
       <c r="G49">
-        <f t="shared" si="14"/>
-        <v>120</v>
+        <f t="shared" si="15"/>
+        <v>75</v>
       </c>
       <c r="H49">
-        <f t="shared" si="14"/>
-        <v>105</v>
+        <f t="shared" si="15"/>
+        <v>62.940952255126035</v>
       </c>
       <c r="I49">
-        <f t="shared" si="14"/>
-        <v>90</v>
+        <f t="shared" si="15"/>
+        <v>50</v>
       </c>
       <c r="J49">
+        <f t="shared" si="15"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="15"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="15"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="15"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="15"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="15"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="15"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="15"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="14"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="14"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="14"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="14"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W49">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="14"/>
-        <v>75</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="14"/>
-        <v>90</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="14"/>
-        <v>105</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="14"/>
-        <v>120</v>
-      </c>
       <c r="X49">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="Y49">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221924</v>
       </c>
       <c r="Z49">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>98.296291314453413</v>
       </c>
       <c r="AA49">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
@@ -4569,103 +5791,103 @@
       </c>
       <c r="C50">
         <f t="shared" si="15"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D50">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>98.296291314453413</v>
       </c>
       <c r="E50">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221938</v>
       </c>
       <c r="F50">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="G50">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="H50">
         <f t="shared" si="14"/>
-        <v>105</v>
+        <v>62.940952255126035</v>
       </c>
       <c r="I50">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J50">
         <f t="shared" si="14"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="14"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="14"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="14"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="14"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="14"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="14"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="14"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="14"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="14"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="14"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="14"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="14"/>
-        <v>75</v>
-      </c>
-      <c r="U50">
-        <f t="shared" si="14"/>
-        <v>90</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="14"/>
-        <v>105</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="14"/>
-        <v>120</v>
-      </c>
       <c r="X50">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="Y50">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221924</v>
       </c>
       <c r="Z50">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>98.296291314453413</v>
       </c>
       <c r="AA50">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
@@ -4678,103 +5900,103 @@
       </c>
       <c r="C51">
         <f t="shared" si="15"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D51">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>98.296291314453413</v>
       </c>
       <c r="E51">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221938</v>
       </c>
       <c r="F51">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="G51">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="H51">
         <f t="shared" si="14"/>
-        <v>105</v>
+        <v>62.940952255126035</v>
       </c>
       <c r="I51">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <f t="shared" si="14"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="14"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="14"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="14"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="14"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="14"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="14"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="14"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="14"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="14"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="14"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="14"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="14"/>
-        <v>75</v>
-      </c>
-      <c r="U51">
-        <f t="shared" si="14"/>
-        <v>90</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="14"/>
-        <v>105</v>
-      </c>
-      <c r="W51">
-        <f t="shared" si="14"/>
-        <v>120</v>
-      </c>
       <c r="X51">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="Y51">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221924</v>
       </c>
       <c r="Z51">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>98.296291314453413</v>
       </c>
       <c r="AA51">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
@@ -4787,103 +6009,103 @@
       </c>
       <c r="C52">
         <f t="shared" si="15"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D52">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>98.296291314453413</v>
       </c>
       <c r="E52">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221938</v>
       </c>
       <c r="F52">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="G52">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="H52">
         <f t="shared" si="14"/>
-        <v>105</v>
+        <v>62.940952255126035</v>
       </c>
       <c r="I52">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <f t="shared" si="14"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="14"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="14"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="14"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="14"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="14"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="14"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="14"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="14"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="14"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="14"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="14"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="K52">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="14"/>
-        <v>75</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="14"/>
-        <v>90</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="14"/>
-        <v>105</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="14"/>
-        <v>120</v>
-      </c>
       <c r="X52">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="Y52">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221924</v>
       </c>
       <c r="Z52">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>98.296291314453413</v>
       </c>
       <c r="AA52">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
@@ -4896,103 +6118,103 @@
       </c>
       <c r="C53">
         <f t="shared" si="15"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D53">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>98.296291314453413</v>
       </c>
       <c r="E53">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221938</v>
       </c>
       <c r="F53">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="G53">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="H53">
         <f t="shared" si="14"/>
-        <v>105</v>
+        <v>62.940952255126035</v>
       </c>
       <c r="I53">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J53">
         <f t="shared" si="14"/>
+        <v>37.059047744873958</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="14"/>
+        <v>25.000000000000011</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="14"/>
+        <v>14.644660940672626</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="14"/>
+        <v>6.6987298107780644</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="14"/>
+        <v>1.7037086855465899</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="14"/>
+        <v>1.7037086855465844</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="14"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="14"/>
+        <v>14.644660940672615</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="14"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="14"/>
+        <v>37.059047744873972</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="14"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="14"/>
+        <v>62.940952255126014</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="K53">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="14"/>
-        <v>75</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="14"/>
-        <v>90</v>
-      </c>
-      <c r="V53">
-        <f t="shared" si="14"/>
-        <v>105</v>
-      </c>
-      <c r="W53">
-        <f t="shared" si="14"/>
-        <v>120</v>
-      </c>
       <c r="X53">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>85.355339059327378</v>
       </c>
       <c r="Y53">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>93.301270189221924</v>
       </c>
       <c r="Z53">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>98.296291314453413</v>
       </c>
       <c r="AA53">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
@@ -5117,104 +6339,104 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <f>(1 + COS(RADIANS(C$56)))* 50</f>
+        <f>(1 + SIN(RADIANS(ABS(180 - C$56 ) * 2 )))* 50</f>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:AA62" si="16">(1 + SIN(RADIANS(ABS(180 - D$56 ) * 2 )))* 50</f>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="D57">
-        <f t="shared" ref="D57:AA62" si="16">(1 + COS(RADIANS(D$56)))* 50</f>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="E57">
+      <c r="M57">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="S57">
         <f t="shared" si="16"/>
         <v>93.301270189221938</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="G57">
+      <c r="T57">
         <f t="shared" si="16"/>
         <v>75</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="16"/>
-        <v>62.940952255126035</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="16"/>
-        <v>50</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="16"/>
-        <v>37.059047744873958</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="16"/>
-        <v>25.000000000000011</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="16"/>
-        <v>14.644660940672626</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="16"/>
-        <v>6.6987298107780644</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="16"/>
-        <v>1.7037086855465899</v>
-      </c>
-      <c r="O57">
+      <c r="U57">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="X57">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P57">
-        <f t="shared" si="16"/>
-        <v>1.7037086855465844</v>
-      </c>
-      <c r="Q57">
+      <c r="Y57">
         <f t="shared" si="16"/>
         <v>6.6987298107780706</v>
       </c>
-      <c r="R57">
-        <f t="shared" si="16"/>
-        <v>14.644660940672615</v>
-      </c>
-      <c r="S57">
+      <c r="Z57">
         <f t="shared" si="16"/>
         <v>24.999999999999979</v>
       </c>
-      <c r="T57">
-        <f t="shared" si="16"/>
-        <v>37.059047744873972</v>
-      </c>
-      <c r="U57">
+      <c r="AA57">
         <f t="shared" si="16"/>
         <v>49.999999999999986</v>
-      </c>
-      <c r="V57">
-        <f t="shared" si="16"/>
-        <v>62.940952255126014</v>
-      </c>
-      <c r="W57">
-        <f t="shared" si="16"/>
-        <v>75</v>
-      </c>
-      <c r="X57">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="Y57">
-        <f t="shared" si="16"/>
-        <v>93.301270189221924</v>
-      </c>
-      <c r="Z57">
-        <f t="shared" si="16"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="AA57">
-        <f t="shared" si="16"/>
-        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
@@ -5226,104 +6448,104 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:R62" si="17">(1 + COS(RADIANS(C$56)))* 50</f>
+        <f t="shared" ref="C58:C62" si="17">(1 + SIN(RADIANS(ABS(180 - C$56 ) * 2 )))* 50</f>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="17"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="17"/>
+      <c r="M58">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="16"/>
         <v>93.301270189221938</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="17"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="17"/>
+      <c r="T58">
+        <f t="shared" si="16"/>
         <v>75</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="17"/>
-        <v>62.940952255126035</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="17"/>
-        <v>50</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="17"/>
-        <v>37.059047744873958</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="17"/>
-        <v>25.000000000000011</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="17"/>
-        <v>14.644660940672626</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="17"/>
-        <v>6.6987298107780644</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="17"/>
-        <v>1.7037086855465899</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="17"/>
+      <c r="U58">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P58">
-        <f t="shared" si="17"/>
-        <v>1.7037086855465844</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="17"/>
+      <c r="Y58">
+        <f t="shared" si="16"/>
         <v>6.6987298107780706</v>
       </c>
-      <c r="R58">
-        <f t="shared" si="17"/>
-        <v>14.644660940672615</v>
-      </c>
-      <c r="S58">
+      <c r="Z58">
         <f t="shared" si="16"/>
         <v>24.999999999999979</v>
       </c>
-      <c r="T58">
-        <f t="shared" si="16"/>
-        <v>37.059047744873972</v>
-      </c>
-      <c r="U58">
+      <c r="AA58">
         <f t="shared" si="16"/>
         <v>49.999999999999986</v>
-      </c>
-      <c r="V58">
-        <f t="shared" si="16"/>
-        <v>62.940952255126014</v>
-      </c>
-      <c r="W58">
-        <f t="shared" si="16"/>
-        <v>75</v>
-      </c>
-      <c r="X58">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" si="16"/>
-        <v>93.301270189221924</v>
-      </c>
-      <c r="Z58">
-        <f t="shared" si="16"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="AA58">
-        <f t="shared" si="16"/>
-        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
@@ -5336,103 +6558,103 @@
       </c>
       <c r="C59">
         <f t="shared" si="17"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="16"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="E59">
+      <c r="M59">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="S59">
         <f t="shared" si="16"/>
         <v>93.301270189221938</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="G59">
+      <c r="T59">
         <f t="shared" si="16"/>
         <v>75</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="16"/>
-        <v>62.940952255126035</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="16"/>
-        <v>50</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="16"/>
-        <v>37.059047744873958</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="16"/>
-        <v>25.000000000000011</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="16"/>
-        <v>14.644660940672626</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="16"/>
-        <v>6.6987298107780644</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="16"/>
-        <v>1.7037086855465899</v>
-      </c>
-      <c r="O59">
+      <c r="U59">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="X59">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P59">
-        <f t="shared" si="16"/>
-        <v>1.7037086855465844</v>
-      </c>
-      <c r="Q59">
+      <c r="Y59">
         <f t="shared" si="16"/>
         <v>6.6987298107780706</v>
       </c>
-      <c r="R59">
-        <f t="shared" si="16"/>
-        <v>14.644660940672615</v>
-      </c>
-      <c r="S59">
+      <c r="Z59">
         <f t="shared" si="16"/>
         <v>24.999999999999979</v>
       </c>
-      <c r="T59">
-        <f t="shared" si="16"/>
-        <v>37.059047744873972</v>
-      </c>
-      <c r="U59">
+      <c r="AA59">
         <f t="shared" si="16"/>
         <v>49.999999999999986</v>
-      </c>
-      <c r="V59">
-        <f t="shared" si="16"/>
-        <v>62.940952255126014</v>
-      </c>
-      <c r="W59">
-        <f t="shared" si="16"/>
-        <v>75</v>
-      </c>
-      <c r="X59">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="Y59">
-        <f t="shared" si="16"/>
-        <v>93.301270189221924</v>
-      </c>
-      <c r="Z59">
-        <f t="shared" si="16"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="AA59">
-        <f t="shared" si="16"/>
-        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
@@ -5445,103 +6667,103 @@
       </c>
       <c r="C60">
         <f t="shared" si="17"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="16"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="E60">
+      <c r="M60">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="S60">
         <f t="shared" si="16"/>
         <v>93.301270189221938</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="G60">
+      <c r="T60">
         <f t="shared" si="16"/>
         <v>75</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="16"/>
-        <v>62.940952255126035</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="16"/>
-        <v>50</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="16"/>
-        <v>37.059047744873958</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="16"/>
-        <v>25.000000000000011</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="16"/>
-        <v>14.644660940672626</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="16"/>
-        <v>6.6987298107780644</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="16"/>
-        <v>1.7037086855465899</v>
-      </c>
-      <c r="O60">
+      <c r="U60">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="X60">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P60">
-        <f t="shared" si="16"/>
-        <v>1.7037086855465844</v>
-      </c>
-      <c r="Q60">
+      <c r="Y60">
         <f t="shared" si="16"/>
         <v>6.6987298107780706</v>
       </c>
-      <c r="R60">
-        <f t="shared" si="16"/>
-        <v>14.644660940672615</v>
-      </c>
-      <c r="S60">
+      <c r="Z60">
         <f t="shared" si="16"/>
         <v>24.999999999999979</v>
       </c>
-      <c r="T60">
-        <f t="shared" si="16"/>
-        <v>37.059047744873972</v>
-      </c>
-      <c r="U60">
+      <c r="AA60">
         <f t="shared" si="16"/>
         <v>49.999999999999986</v>
-      </c>
-      <c r="V60">
-        <f t="shared" si="16"/>
-        <v>62.940952255126014</v>
-      </c>
-      <c r="W60">
-        <f t="shared" si="16"/>
-        <v>75</v>
-      </c>
-      <c r="X60">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="16"/>
-        <v>93.301270189221924</v>
-      </c>
-      <c r="Z60">
-        <f t="shared" si="16"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="AA60">
-        <f t="shared" si="16"/>
-        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
@@ -5554,103 +6776,103 @@
       </c>
       <c r="C61">
         <f t="shared" si="17"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="16"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="E61">
+      <c r="M61">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="S61">
         <f t="shared" si="16"/>
         <v>93.301270189221938</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="G61">
+      <c r="T61">
         <f t="shared" si="16"/>
         <v>75</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="16"/>
-        <v>62.940952255126035</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="16"/>
-        <v>50</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="16"/>
-        <v>37.059047744873958</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="16"/>
-        <v>25.000000000000011</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="16"/>
-        <v>14.644660940672626</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="16"/>
-        <v>6.6987298107780644</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="16"/>
-        <v>1.7037086855465899</v>
-      </c>
-      <c r="O61">
+      <c r="U61">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="X61">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P61">
-        <f t="shared" si="16"/>
-        <v>1.7037086855465844</v>
-      </c>
-      <c r="Q61">
+      <c r="Y61">
         <f t="shared" si="16"/>
         <v>6.6987298107780706</v>
       </c>
-      <c r="R61">
-        <f t="shared" si="16"/>
-        <v>14.644660940672615</v>
-      </c>
-      <c r="S61">
+      <c r="Z61">
         <f t="shared" si="16"/>
         <v>24.999999999999979</v>
       </c>
-      <c r="T61">
-        <f t="shared" si="16"/>
-        <v>37.059047744873972</v>
-      </c>
-      <c r="U61">
+      <c r="AA61">
         <f t="shared" si="16"/>
         <v>49.999999999999986</v>
-      </c>
-      <c r="V61">
-        <f t="shared" si="16"/>
-        <v>62.940952255126014</v>
-      </c>
-      <c r="W61">
-        <f t="shared" si="16"/>
-        <v>75</v>
-      </c>
-      <c r="X61">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" si="16"/>
-        <v>93.301270189221924</v>
-      </c>
-      <c r="Z61">
-        <f t="shared" si="16"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="AA61">
-        <f t="shared" si="16"/>
-        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
@@ -5663,119 +6885,107 @@
       </c>
       <c r="C62">
         <f t="shared" si="17"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="16"/>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780706</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="16"/>
+        <v>93.301270189221938</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="16"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="E62">
+      <c r="M62">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="16"/>
+        <v>93.301270189221924</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="S62">
         <f t="shared" si="16"/>
         <v>93.301270189221938</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="G62">
+      <c r="T62">
         <f t="shared" si="16"/>
         <v>75</v>
       </c>
-      <c r="H62">
-        <f t="shared" si="16"/>
-        <v>62.940952255126035</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="16"/>
-        <v>50</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="16"/>
-        <v>37.059047744873958</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="16"/>
-        <v>25.000000000000011</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="16"/>
-        <v>14.644660940672626</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="16"/>
-        <v>6.6987298107780644</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="16"/>
-        <v>1.7037086855465899</v>
-      </c>
-      <c r="O62">
+      <c r="U62">
+        <f t="shared" si="16"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="16"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="16"/>
+        <v>6.6987298107780813</v>
+      </c>
+      <c r="X62">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P62">
-        <f t="shared" si="16"/>
-        <v>1.7037086855465844</v>
-      </c>
-      <c r="Q62">
+      <c r="Y62">
         <f t="shared" si="16"/>
         <v>6.6987298107780706</v>
       </c>
-      <c r="R62">
-        <f t="shared" si="16"/>
-        <v>14.644660940672615</v>
-      </c>
-      <c r="S62">
+      <c r="Z62">
         <f t="shared" si="16"/>
         <v>24.999999999999979</v>
       </c>
-      <c r="T62">
-        <f t="shared" si="16"/>
-        <v>37.059047744873972</v>
-      </c>
-      <c r="U62">
+      <c r="AA62">
         <f t="shared" si="16"/>
         <v>49.999999999999986</v>
-      </c>
-      <c r="V62">
-        <f t="shared" si="16"/>
-        <v>62.940952255126014</v>
-      </c>
-      <c r="W62">
-        <f t="shared" si="16"/>
-        <v>75</v>
-      </c>
-      <c r="X62">
-        <f t="shared" si="16"/>
-        <v>85.355339059327378</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="16"/>
-        <v>93.301270189221924</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" si="16"/>
-        <v>98.296291314453413</v>
-      </c>
-      <c r="AA62">
-        <f t="shared" si="16"/>
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:AA46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:AA55"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:AA1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:AA10"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:AA37"/>
@@ -5785,8 +6995,30 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:AA28"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:AA1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:AA10"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:AA46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:AA55"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AA8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:AA17">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5796,18 +7028,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:AA17">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C30:AA35">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5817,6 +7039,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:AA26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:AA44">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5826,8 +7058,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:AA44">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C57:AA62">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5837,16 +7069,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:AA53">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57:AA62">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5862,13 +7084,3272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B361"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>(1 + SIN(RADIANS(ABS(180 - $A2 ) * 2 )))* 50</f>
+        <v>49.999999999999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">(1 + SIN(RADIANS(ABS(180 - $A3 ) * 2 )))* 50</f>
+        <v>48.255025164874958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>46.51217631279372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>44.77357683661733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>43.041344951996706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>41.317591116653482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>39.604415459112005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>37.903905220016611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>36.218132209150056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>34.549150281252615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>32.898992833716569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>31.269670329204381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>29.663167846209994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>28.081442660546109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>26.526421860705462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>24.999999999999979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>23.50403678833975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>22.040354826462671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>20.610737385376332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>19.216926233717089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>17.860619515673022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>16.543469682057093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>15.267081477050121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>14.033009983067441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>12.84275872613027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>11.697777844051094</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>10.59946231966391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>9.5491502812526221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>8.5481213722479197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>7.5975951921786908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>6.6987298107780706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>5.8526203570536453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>5.0602976850416486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>4.3227271178699453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>3.6408072716606288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>3.0153689607045839</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2.4471741852423179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>1.9369152030840608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1.4852136862001708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1.0926199633097211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.75961234938959343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.4865965629214819</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.27390523158632996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.12179748700878457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>3.0458649045211894E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>3.0458649045211894E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.12179748700879012</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.27390523158632996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.48659656292148745</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.75961234938959898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>1.0926199633097211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1.4852136862001764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1.9369152030840497</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>2.4471741852423232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>3.0153689607045786</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>3.6408072716606341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>4.3227271178699507</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>5.0602976850416592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>5.8526203570536506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>6.6987298107780813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>7.5975951921787024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>8.5481213722479072</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>9.5491502812526328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>10.599462319663894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B130" si="1">(1 + SIN(RADIANS(ABS(180 - $A67 ) * 2 )))* 50</f>
+        <v>11.697777844051105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>12.842758726130283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>14.033009983067441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>15.267081477050132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>16.543469682057086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>17.860619515673037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>19.216926233717089</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>20.61073738537635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>22.040354826462664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>23.504036788339761</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>24.999999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>26.526421860705458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>28.081442660546131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>29.663167846209994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>31.269670329204402</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>32.898992833716569</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>34.549150281252636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>36.218132209150049</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>37.903905220016625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>39.604415459112026</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>41.317591116653475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>43.041344951996727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>44.773576836617323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>46.512176312793734</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>48.255025164874951</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>50.000000000000014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>51.744974835125056</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>53.48782368720628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>55.226423163382691</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>56.958655048003273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>58.682408883346518</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>60.395584540887967</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>62.096094779983389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>63.781867790849958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>65.450849718747378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>67.101007166283438</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>68.730329670795612</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>70.336832153790013</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>71.918557339453869</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>73.473578139294531</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>76.495963211660239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>77.959645173537353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>79.389262614623675</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>80.783073766282925</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>82.139380484326978</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>83.456530317942907</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>84.732918522949859</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>85.966990016932556</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>87.157241273869715</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>88.302222155948897</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>89.4005376803361</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>90.450849718747378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>91.45187862775208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>92.402404807821299</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>93.301270189221938</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>94.147379642946348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>94.939702314958339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>95.67727288213004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>96.359192728339366</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>96.984631039295422</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>97.552825814757682</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>98.063084796915945</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>98.514786313799817</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B194" si="2">(1 + SIN(RADIANS(ABS(180 - $A131 ) * 2 )))* 50</f>
+        <v>98.907380036690284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="2"/>
+        <v>99.240387650610401</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>99.513403437078523</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>99.72609476841366</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>99.878202512991209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>99.969541350954799</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>99.969541350954799</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>99.878202512991209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>99.72609476841366</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>99.513403437078523</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="2"/>
+        <v>99.240387650610401</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>98.907380036690284</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>98.514786313799817</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>98.063084796915945</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>97.552825814757682</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>96.984631039295422</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>96.359192728339366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>95.67727288213004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="2"/>
+        <v>94.939702314958353</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="2"/>
+        <v>94.147379642946348</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="2"/>
+        <v>93.301270189221924</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="2"/>
+        <v>92.402404807821299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>91.45187862775208</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>90.450849718747378</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="2"/>
+        <v>89.4005376803361</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="2"/>
+        <v>88.302222155948897</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="2"/>
+        <v>87.157241273869715</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="2"/>
+        <v>85.966990016932556</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="2"/>
+        <v>84.732918522949859</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="2"/>
+        <v>83.456530317942907</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="2"/>
+        <v>82.139380484326963</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="2"/>
+        <v>80.783073766282911</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>79.389262614623661</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="2"/>
+        <v>77.959645173537353</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="2"/>
+        <v>76.495963211660239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="2"/>
+        <v>73.473578139294531</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="2"/>
+        <v>71.918557339453869</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="2"/>
+        <v>70.336832153790013</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="2"/>
+        <v>68.730329670795598</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="2"/>
+        <v>67.101007166283438</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="2"/>
+        <v>65.450849718747378</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="2"/>
+        <v>63.781867790849958</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="2"/>
+        <v>62.096094779983389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="2"/>
+        <v>60.395584540887967</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="2"/>
+        <v>58.682408883346518</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="2"/>
+        <v>56.958655048003273</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="2"/>
+        <v>55.226423163382677</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="2"/>
+        <v>53.487823687206259</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="2"/>
+        <v>51.744974835125049</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="2"/>
+        <v>51.744974835125049</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="2"/>
+        <v>53.487823687206259</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="2"/>
+        <v>55.226423163382677</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="2"/>
+        <v>56.958655048003273</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="2"/>
+        <v>58.682408883346518</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="2"/>
+        <v>60.395584540887967</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="2"/>
+        <v>62.096094779983389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="2"/>
+        <v>63.781867790849958</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="2"/>
+        <v>65.450849718747378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="2"/>
+        <v>67.101007166283438</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="2"/>
+        <v>68.730329670795598</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="2"/>
+        <v>70.336832153790013</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ref="B195:B258" si="3">(1 + SIN(RADIANS(ABS(180 - $A195 ) * 2 )))* 50</f>
+        <v>71.918557339453869</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="3"/>
+        <v>73.473578139294531</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="3"/>
+        <v>76.495963211660239</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="3"/>
+        <v>77.959645173537353</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="3"/>
+        <v>79.389262614623661</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="3"/>
+        <v>80.783073766282911</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="3"/>
+        <v>82.139380484326963</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="3"/>
+        <v>83.456530317942907</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="3"/>
+        <v>84.732918522949859</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="3"/>
+        <v>85.966990016932556</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="3"/>
+        <v>87.157241273869715</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="3"/>
+        <v>88.302222155948897</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="3"/>
+        <v>89.4005376803361</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="3"/>
+        <v>90.450849718747378</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="3"/>
+        <v>91.45187862775208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="3"/>
+        <v>92.402404807821299</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="3"/>
+        <v>93.301270189221924</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="3"/>
+        <v>94.147379642946348</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="3"/>
+        <v>94.939702314958353</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="3"/>
+        <v>95.67727288213004</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="3"/>
+        <v>96.359192728339366</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="3"/>
+        <v>96.984631039295422</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="3"/>
+        <v>97.552825814757682</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="3"/>
+        <v>98.063084796915945</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="3"/>
+        <v>98.514786313799817</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="3"/>
+        <v>98.907380036690284</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="3"/>
+        <v>99.240387650610401</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="3"/>
+        <v>99.513403437078523</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="3"/>
+        <v>99.72609476841366</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="3"/>
+        <v>99.878202512991209</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="3"/>
+        <v>99.969541350954799</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="3"/>
+        <v>99.969541350954799</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="3"/>
+        <v>99.878202512991209</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="3"/>
+        <v>99.72609476841366</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="3"/>
+        <v>99.513403437078523</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="3"/>
+        <v>99.240387650610401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="3"/>
+        <v>98.907380036690284</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="3"/>
+        <v>98.514786313799817</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="3"/>
+        <v>98.063084796915945</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="3"/>
+        <v>97.552825814757682</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="3"/>
+        <v>96.984631039295422</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="3"/>
+        <v>96.359192728339366</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="3"/>
+        <v>95.67727288213004</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="3"/>
+        <v>94.939702314958339</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="3"/>
+        <v>94.147379642946348</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="3"/>
+        <v>93.301270189221938</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="3"/>
+        <v>92.402404807821299</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="3"/>
+        <v>91.45187862775208</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="3"/>
+        <v>90.450849718747378</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="3"/>
+        <v>89.4005376803361</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="3"/>
+        <v>88.302222155948897</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="3"/>
+        <v>87.157241273869715</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="3"/>
+        <v>85.966990016932556</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="3"/>
+        <v>84.732918522949859</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="3"/>
+        <v>83.456530317942907</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="3"/>
+        <v>82.139380484326978</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="3"/>
+        <v>80.783073766282925</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="3"/>
+        <v>79.389262614623675</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="3"/>
+        <v>77.959645173537353</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="3"/>
+        <v>76.495963211660239</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="3"/>
+        <v>73.473578139294531</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <f t="shared" ref="B259:B322" si="4">(1 + SIN(RADIANS(ABS(180 - $A259 ) * 2 )))* 50</f>
+        <v>71.918557339453869</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="4"/>
+        <v>70.336832153790013</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="4"/>
+        <v>68.730329670795612</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="4"/>
+        <v>67.101007166283438</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="4"/>
+        <v>65.450849718747378</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="4"/>
+        <v>63.781867790849958</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="4"/>
+        <v>62.096094779983389</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="4"/>
+        <v>60.395584540887967</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="4"/>
+        <v>58.682408883346518</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="4"/>
+        <v>56.958655048003273</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="4"/>
+        <v>55.226423163382691</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="4"/>
+        <v>53.48782368720628</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="4"/>
+        <v>51.744974835125056</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="4"/>
+        <v>50.000000000000014</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="4"/>
+        <v>48.255025164874951</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="4"/>
+        <v>46.512176312793734</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="4"/>
+        <v>44.773576836617323</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="4"/>
+        <v>43.041344951996727</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="4"/>
+        <v>41.317591116653475</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="4"/>
+        <v>39.604415459112026</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="4"/>
+        <v>37.903905220016625</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="4"/>
+        <v>36.218132209150049</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="4"/>
+        <v>34.549150281252636</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="4"/>
+        <v>32.898992833716569</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="4"/>
+        <v>31.269670329204402</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="4"/>
+        <v>29.663167846209994</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="4"/>
+        <v>28.081442660546131</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="4"/>
+        <v>26.526421860705458</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="4"/>
+        <v>24.999999999999993</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="4"/>
+        <v>23.504036788339761</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="4"/>
+        <v>22.040354826462664</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="4"/>
+        <v>20.61073738537635</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="4"/>
+        <v>19.216926233717089</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="4"/>
+        <v>17.860619515673037</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="4"/>
+        <v>16.543469682057086</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="4"/>
+        <v>15.267081477050132</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="4"/>
+        <v>14.033009983067441</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="4"/>
+        <v>12.842758726130283</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="4"/>
+        <v>11.697777844051105</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="4"/>
+        <v>10.599462319663894</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="4"/>
+        <v>9.5491502812526328</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="4"/>
+        <v>8.5481213722479072</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="4"/>
+        <v>7.5975951921787024</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="4"/>
+        <v>6.6987298107780813</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="4"/>
+        <v>5.8526203570536506</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="4"/>
+        <v>5.0602976850416592</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="4"/>
+        <v>4.3227271178699507</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="4"/>
+        <v>3.6408072716606341</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="4"/>
+        <v>3.0153689607045786</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="4"/>
+        <v>2.4471741852423232</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="4"/>
+        <v>1.9369152030840497</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="4"/>
+        <v>1.4852136862001764</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="4"/>
+        <v>1.0926199633097211</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="4"/>
+        <v>0.75961234938959898</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="4"/>
+        <v>0.48659656292148745</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="4"/>
+        <v>0.27390523158632996</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="4"/>
+        <v>0.12179748700879012</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="4"/>
+        <v>3.0458649045211894E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="4"/>
+        <v>3.0458649045211894E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="4"/>
+        <v>0.12179748700878457</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="4"/>
+        <v>0.27390523158632996</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="4"/>
+        <v>0.4865965629214819</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <f t="shared" si="4"/>
+        <v>0.75961234938959343</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <f t="shared" ref="B323:B361" si="5">(1 + SIN(RADIANS(ABS(180 - $A323 ) * 2 )))* 50</f>
+        <v>1.0926199633097211</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="5"/>
+        <v>1.4852136862001708</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="5"/>
+        <v>1.9369152030840608</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="5"/>
+        <v>2.4471741852423179</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="5"/>
+        <v>3.0153689607045839</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="5"/>
+        <v>3.6408072716606288</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="5"/>
+        <v>4.3227271178699453</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="5"/>
+        <v>5.0602976850416486</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="5"/>
+        <v>5.8526203570536453</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="5"/>
+        <v>6.6987298107780706</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="5"/>
+        <v>7.5975951921786908</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="5"/>
+        <v>8.5481213722479197</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="5"/>
+        <v>9.5491502812526221</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="5"/>
+        <v>10.59946231966391</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="5"/>
+        <v>11.697777844051094</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="5"/>
+        <v>12.84275872613027</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="5"/>
+        <v>14.033009983067441</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="5"/>
+        <v>15.267081477050121</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="5"/>
+        <v>16.543469682057093</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="5"/>
+        <v>17.860619515673022</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="5"/>
+        <v>19.216926233717089</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="5"/>
+        <v>20.610737385376332</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <f t="shared" si="5"/>
+        <v>22.040354826462671</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="5"/>
+        <v>23.50403678833975</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <f t="shared" si="5"/>
+        <v>24.999999999999979</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <f t="shared" si="5"/>
+        <v>26.526421860705462</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <f t="shared" si="5"/>
+        <v>28.081442660546109</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <f t="shared" si="5"/>
+        <v>29.663167846209994</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="5"/>
+        <v>31.269670329204381</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="5"/>
+        <v>32.898992833716569</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="5"/>
+        <v>34.549150281252615</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="5"/>
+        <v>36.218132209150056</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="5"/>
+        <v>37.903905220016611</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="5"/>
+        <v>39.604415459112005</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="5"/>
+        <v>41.317591116653482</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="5"/>
+        <v>43.041344951996706</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="5"/>
+        <v>44.77357683661733</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <f t="shared" si="5"/>
+        <v>46.51217631279372</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="5"/>
+        <v>48.255025164874958</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B361">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
